--- a/Baitap-Database-CRUD/ERD/Book1.xlsx
+++ b/Baitap-Database-CRUD/ERD/Book1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phamt\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nitro\WebstormProjects\MD3-Demo-Connect-Database\Baitap-Database-CRUD\ERD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E534523A-20C5-4075-873B-36FFA5F622DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7995"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Products</t>
   </si>
@@ -42,19 +43,36 @@
   </si>
   <si>
     <t xml:space="preserve"> describe varcha</t>
+  </si>
+  <si>
+    <t>idGrade int</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>graded varchar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -78,8 +96,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,49 +378,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Baitap-Database-CRUD/ERD/Book1.xlsx
+++ b/Baitap-Database-CRUD/ERD/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nitro\WebstormProjects\MD3-Demo-Connect-Database\Baitap-Database-CRUD\ERD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E534523A-20C5-4075-873B-36FFA5F622DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8BDFC7-5303-44B2-ACE9-83C110D2D263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,18 +33,9 @@
     <t>id int not null pk auto</t>
   </si>
   <si>
-    <t>name varcha</t>
-  </si>
-  <si>
     <t>price int</t>
   </si>
   <si>
-    <t>image text</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> describe varcha</t>
-  </si>
-  <si>
     <t>idGrade int</t>
   </si>
   <si>
@@ -52,6 +43,15 @@
   </si>
   <si>
     <t>graded varchar</t>
+  </si>
+  <si>
+    <t>image varchar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> describe varchar</t>
+  </si>
+  <si>
+    <t>name varchar</t>
   </si>
 </sst>
 </file>
@@ -382,7 +382,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -396,7 +396,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -409,30 +409,30 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
